--- a/imageSequence_generator/stimuli_info_nontarget.xlsx
+++ b/imageSequence_generator/stimuli_info_nontarget.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pexels-andreaedavis-13757468.jpg</t>
+          <t>99-films-9K-rMgWLCYM-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C2">
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pexels-arina-krasnikova-6653896.jpg</t>
+          <t>backbone-visuals-L4iRkKL5dng-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C3">
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pexels-christa-grover-977018-1910472.jpg</t>
+          <t>bathroom-1940171_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C4">
@@ -525,7 +525,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pexels-curtis-adams-1694007-14495969.jpg</t>
+          <t>bathroom-335748_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C5">
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pexels-curtis-adams-1694007-3288104.jpg</t>
+          <t>bathroom-6893077_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C6">
@@ -597,7 +597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pexels-curtis-adams-1694007-3935352.jpg</t>
+          <t>bathroom-6893117_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C7">
@@ -633,7 +633,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pexels-fotoaibe-1571462.jpg</t>
+          <t>bathroom-8260426_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C8">
@@ -669,7 +669,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pexels-fotoaibe-3741317.jpg</t>
+          <t>bathroom-8323932_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C9">
@@ -705,7 +705,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pexels-hakimsatoso-3634742.jpg</t>
+          <t>bathroom-8428429_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C10">
@@ -741,7 +741,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pexels-heyho-6207818.jpg</t>
+          <t>bathroom-8714843_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C11">
@@ -777,7 +777,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pexels-heyho-6301176.jpg</t>
+          <t>bilal-mansuri-cxpB9IPVjDM-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C12">
@@ -813,7 +813,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pexels-heyho-6316060.jpg</t>
+          <t>bilal-mansuri-vTj_dmFGB1Y-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C13">
@@ -849,7 +849,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pexels-heyho-6316062.jpg</t>
+          <t>cameron-smith-CTxNVSiWZBw-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C14">
@@ -885,7 +885,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pexels-heyho-6436770.jpg</t>
+          <t>chastity-cortijo-6TY_WrJTwSI-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C15">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pexels-heyho-6487948.jpg</t>
+          <t>chastity-cortijo-80c0YaiSFk4-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C16">
@@ -957,7 +957,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pexels-heyho-6489086.jpg</t>
+          <t>chastity-cortijo-FJLoqqIsSHc-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C17">
@@ -993,7 +993,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pexels-heyho-6636300.jpg</t>
+          <t>chastity-cortijo-rT0zaQn2r5o-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C18">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pexels-heyho-6758511.jpg</t>
+          <t>condo-3499679_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C19">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pexels-heyho-6782431.jpg</t>
+          <t>dan-counsell-CQeKvOTrGuQ-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C20">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pexels-heyho-6908361.jpg</t>
+          <t>dmitriy-frantsev-36ofMxq8yXo-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C21">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pexels-heyho-6933766.jpg</t>
+          <t>filios-sazeides-qeIuFR5vPm8-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C22">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pexels-heyho-6969997.jpg</t>
+          <t>filmreal-studio-HQYmdYCXm7I-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C23">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pexels-heyho-7005451.jpg</t>
+          <t>francesca-tosolini-FX1EbT-jKBQ-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C24">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pexels-heyho-7018243.jpg</t>
+          <t>francesca-tosolini-kDtuOUIkwrk-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C25">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pexels-heyho-7018822.jpg</t>
+          <t>furniture-6778198_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C26">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pexels-heyho-7031878.jpg</t>
+          <t>grace-kelly-xCxMmFBjJ6o-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C27">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pexels-heyho-7031882.jpg</t>
+          <t>hemant-kanojiya-LSKfjiXsbUU-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C28">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pexels-heyho-7046006.jpg</t>
+          <t>house-method-FssgtQxo2xc-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C29">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pexels-heyho-7061423.jpg</t>
+          <t>interior-design-6799917_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C30">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pexels-heyho-7166551.jpg</t>
+          <t>jana-heinemann-hztvuJsoTmY-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C31">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pexels-heyho-7166936.jpg</t>
+          <t>jana-heinemann-pVQM6vJg92M-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C32">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pexels-heyho-7214446.jpg</t>
+          <t>jon-stebbe-GY5DTZ51sXs-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C33">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pexels-heyho-7227624.jpg</t>
+          <t>jon-stebbe-JAW8aK3ImD8-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C34">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pexels-heyho-7545781.jpg</t>
+          <t>lotus-design-n-print-8WG4EXvdM4M-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C35">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pexels-heyho-7546320.jpg</t>
+          <t>lotus-design-n-print-Dk_o7KQyGkI-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C36">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pexels-heyho-7546640.jpg</t>
+          <t>lotus-design-n-print-g51F6-WYzyU-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C37">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pexels-heyho-7587746.jpg</t>
+          <t>michiel-van-kaam-QhbtepGK5Yg-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C38">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pexels-heyho-8134810.jpg</t>
+          <t>pexels-andreaedavis-13757468_resized.jpg</t>
         </is>
       </c>
       <c r="C39">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pexels-heyho-8134822.jpg</t>
+          <t>pexels-arina-krasnikova-6653896_resized.jpg</t>
         </is>
       </c>
       <c r="C40">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pexels-heyho-8141966.jpg</t>
+          <t>pexels-christa-grover-977018-1910472_resized.jpg</t>
         </is>
       </c>
       <c r="C41">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pexels-heyho-8143713.jpg</t>
+          <t>pexels-curtis-adams-1694007-14495969_resized.jpg</t>
         </is>
       </c>
       <c r="C42">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pexels-jvdm-1599790.jpg</t>
+          <t>pexels-curtis-adams-1694007-3288104_resized.jpg</t>
         </is>
       </c>
       <c r="C43">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pexels-pixabay-262005.jpg</t>
+          <t>pexels-curtis-adams-1694007-3935352_resized.jpg</t>
         </is>
       </c>
       <c r="C44">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pexels-pixabay-358592.jpg</t>
+          <t>pexels-fotoaibe-1571462_resized.jpg</t>
         </is>
       </c>
       <c r="C45">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pexels-rana-matloob-hussain-733235258-26886816 (1).jpg</t>
+          <t>pexels-fotoaibe-3741317_resized.jpg</t>
         </is>
       </c>
       <c r="C46">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pexels-rana-matloob-hussain-733235258-26886816.jpg</t>
+          <t>pexels-hakimsatoso-3634742_resized.jpg</t>
         </is>
       </c>
       <c r="C47">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pexels-swed-standard-1308234756-27629443.jpg</t>
+          <t>pexels-heyho-6207818_resized.jpg</t>
         </is>
       </c>
       <c r="C48">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pexels-vika-glitter-392079-3315291.jpg</t>
+          <t>pexels-heyho-6301176_resized.jpg</t>
         </is>
       </c>
       <c r="C49">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bathroom-1940171_1920.jpg</t>
+          <t>pexels-heyho-6316060_resized.jpg</t>
         </is>
       </c>
       <c r="C50">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bathroom-335748_1920.jpg</t>
+          <t>pexels-heyho-6436770_resized.jpg</t>
         </is>
       </c>
       <c r="C51">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bathroom-6893077_1920.jpg</t>
+          <t>pexels-heyho-6487948_resized.jpg</t>
         </is>
       </c>
       <c r="C52">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bathroom-6893117_1920.jpg</t>
+          <t>pexels-heyho-6636300_resized.jpg</t>
         </is>
       </c>
       <c r="C53">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bathroom-8260426_1920.jpg</t>
+          <t>pexels-heyho-6758511_resized.jpg</t>
         </is>
       </c>
       <c r="C54">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bathroom-8323932_1920.jpg</t>
+          <t>pexels-heyho-6782431_resized.jpg</t>
         </is>
       </c>
       <c r="C55">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bathroom-8428429_1920.jpg</t>
+          <t>pexels-heyho-6908361_resized.jpg</t>
         </is>
       </c>
       <c r="C56">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bathroom-8714843_1920.jpg</t>
+          <t>pexels-heyho-6933766_resized.jpg</t>
         </is>
       </c>
       <c r="C57">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>condo-3499679_1920.jpg</t>
+          <t>pexels-heyho-6969997_resized.jpg</t>
         </is>
       </c>
       <c r="C58">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>furniture-6778198_1920.jpg</t>
+          <t>pexels-heyho-7005451_resized.jpg</t>
         </is>
       </c>
       <c r="C59">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>interior-design-6799917_1920.jpg</t>
+          <t>pexels-heyho-7018243_resized.jpg</t>
         </is>
       </c>
       <c r="C60">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>real-estate-9108319_1920.jpg</t>
+          <t>pexels-heyho-7018822_resized.jpg</t>
         </is>
       </c>
       <c r="C61">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>99-films-9K-rMgWLCYM-unsplash.jpg</t>
+          <t>pexels-heyho-7031878_resized.jpg</t>
         </is>
       </c>
       <c r="C62">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>backbone-visuals-L4iRkKL5dng-unsplash.jpg</t>
+          <t>pexels-heyho-7031882_resized.jpg</t>
         </is>
       </c>
       <c r="C63">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bilal-mansuri-cxpB9IPVjDM-unsplash.jpg</t>
+          <t>pexels-heyho-7046006_resized.jpg</t>
         </is>
       </c>
       <c r="C64">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bilal-mansuri-vTj_dmFGB1Y-unsplash.jpg</t>
+          <t>pexels-heyho-7061423_resized.jpg</t>
         </is>
       </c>
       <c r="C65">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cameron-smith-CTxNVSiWZBw-unsplash.jpg</t>
+          <t>pexels-heyho-7166551_resized.jpg</t>
         </is>
       </c>
       <c r="C66">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cameron-smith-WFaLFAyKp5g-unsplash.jpg</t>
+          <t>pexels-heyho-7166936_resized.jpg</t>
         </is>
       </c>
       <c r="C67">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>chastity-cortijo-6TY_WrJTwSI-unsplash.jpg</t>
+          <t>pexels-heyho-7214446_resized.jpg</t>
         </is>
       </c>
       <c r="C68">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>chastity-cortijo-80c0YaiSFk4-unsplash.jpg</t>
+          <t>pexels-heyho-7227624_resized.jpg</t>
         </is>
       </c>
       <c r="C69">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>chastity-cortijo-FJLoqqIsSHc-unsplash.jpg</t>
+          <t>pexels-heyho-7545781_resized.jpg</t>
         </is>
       </c>
       <c r="C70">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>chastity-cortijo-rT0zaQn2r5o-unsplash.jpg</t>
+          <t>pexels-heyho-7546320_resized.jpg</t>
         </is>
       </c>
       <c r="C71">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>dan-counsell-CQeKvOTrGuQ-unsplash.jpg</t>
+          <t>pexels-heyho-7546640_resized.jpg</t>
         </is>
       </c>
       <c r="C72">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dmitriy-frantsev-36ofMxq8yXo-unsplash.jpg</t>
+          <t>pexels-heyho-7587746_resized.jpg</t>
         </is>
       </c>
       <c r="C73">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>filios-sazeides-qeIuFR5vPm8-unsplash.jpg</t>
+          <t>pexels-heyho-8134810_resized.jpg</t>
         </is>
       </c>
       <c r="C74">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>filmreal-studio-HQYmdYCXm7I-unsplash.jpg</t>
+          <t>pexels-heyho-8134822_resized.jpg</t>
         </is>
       </c>
       <c r="C75">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>francesca-tosolini-FX1EbT-jKBQ-unsplash.jpg</t>
+          <t>pexels-heyho-8141966_resized.jpg</t>
         </is>
       </c>
       <c r="C76">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>francesca-tosolini-kDtuOUIkwrk-unsplash.jpg</t>
+          <t>pexels-heyho-8143713_resized.jpg</t>
         </is>
       </c>
       <c r="C77">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>grace-kelly-xCxMmFBjJ6o-unsplash.jpg</t>
+          <t>pexels-jvdm-1599790_resized.jpg</t>
         </is>
       </c>
       <c r="C78">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>hemant-kanojiya-LSKfjiXsbUU-unsplash.jpg</t>
+          <t>pexels-pixabay-262005_resized.jpg</t>
         </is>
       </c>
       <c r="C79">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hemant-kanojiya-nI4C9UA1omQ-unsplash.jpg</t>
+          <t>pexels-pixabay-358592_resized.jpg</t>
         </is>
       </c>
       <c r="C80">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>house-method-FssgtQxo2xc-unsplash.jpg</t>
+          <t>pexels-rana-matloob-hussain-733235258-26886816_resized.jpg</t>
         </is>
       </c>
       <c r="C81">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i-m-zion-uvTU6lLdam4-unsplash.jpg</t>
+          <t>pexels-swed-standard-1308234756-27629443_resized.jpg</t>
         </is>
       </c>
       <c r="C82">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jana-heinemann-hztvuJsoTmY-unsplash.jpg</t>
+          <t>pexels-vika-glitter-392079-3315291_resized.jpg</t>
         </is>
       </c>
       <c r="C83">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jana-heinemann-pVQM6vJg92M-unsplash.jpg</t>
+          <t>phil-hearing-U7PitHRnTNU-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C84">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jon-stebbe-GY5DTZ51sXs-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-2X9H1lD_k2Q-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C85">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jon-stebbe-JAW8aK3ImD8-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-5eCmN54oSII-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C86">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>lotus-design-n-print-8WG4EXvdM4M-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-fcMFAGyrxjQ-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C87">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>lotus-design-n-print-Dk_o7KQyGkI-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-hO2_85mLPsU-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C88">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>lotus-design-n-print-g51F6-WYzyU-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-hWGlQlfoEr0-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C89">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>michiel-van-kaam-QhbtepGK5Yg-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-krQbRzuJke0-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C90">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nathan-van-egmond-rkVTdpQ1zSg-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-Ks7telPjAGk-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C91">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>phil-hearing-U7PitHRnTNU-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-O5ZkhxbIGso-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C92">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-2X9H1lD_k2Q-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-puSizVhqZYw-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C93">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-5eCmN54oSII-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-sT9BsSAGw3s-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C94">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-fcMFAGyrxjQ-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-W74Si-WnmXc-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C95">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-hO2_85mLPsU-unsplash.jpg</t>
+          <t>point3d-commercial-imaging-ltd-WbmX0pw_AuI-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C96">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-hWGlQlfoEr0-unsplash.jpg</t>
+          <t>raquel-navalon-alvarez-TWj0qbJn4zI-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C97">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-krQbRzuJke0-unsplash.jpg</t>
+          <t>real-estate-9108319_1920_resized.jpg</t>
         </is>
       </c>
       <c r="C98">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-Ks7telPjAGk-unsplash.jpg</t>
+          <t>steven-ungermann-1AF5hP6F4tI-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C99">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-O5ZkhxbIGso-unsplash.jpg</t>
+          <t>steven-ungermann-Aac7IlKnYX8-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C100">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-puSizVhqZYw-unsplash.jpg</t>
+          <t>steven-ungermann-d-zkUcfJbWw-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C101">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-sT9BsSAGw3s-unsplash.jpg</t>
+          <t>steven-ungermann-rfcymadRRXQ-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C102">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-THFG10Ar8Ug-unsplash.jpg</t>
+          <t>sven-brandsma-kiV82HqGyTo-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C103">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>point3d-commercial-imaging-ltd-W74Si-WnmXc-unsplash.jpg</t>
+          <t>zac-gudakov-RMnc22CwVVA-unsplash_resized.jpg</t>
         </is>
       </c>
       <c r="C104">
@@ -4114,2094 +4114,6 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>point3d-commercial-imaging-ltd-WbmX0pw_AuI-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>r-architecture-RfXkG1qm1RI-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>raquel-navalon-alvarez-TWj0qbJn4zI-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>steven-ungermann-1AF5hP6F4tI-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>steven-ungermann-Aac7IlKnYX8-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>steven-ungermann-d-zkUcfJbWw-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>steven-ungermann-rfcymadRRXQ-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>sven-brandsma-kiV82HqGyTo-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>zac-gudakov-RMnc22CwVVA-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>zac-gudakov-y79dt3dhTxc-unsplash.jpg</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>pexels-andreaedavis-13757468.jpg</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>pexels-arina-krasnikova-6653896.jpg</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>pexels-christa-grover-977018-1910472.jpg</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>pexels-curtis-adams-1694007-14495969.jpg</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>pexels-curtis-adams-1694007-3288104.jpg</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>pexels-curtis-adams-1694007-3935352.jpg</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>pexels-fotoaibe-1571462.jpg</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>pexels-fotoaibe-3741317.jpg</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>pexels-hakimsatoso-3634742.jpg</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6207818.jpg</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6301176.jpg</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6316060.jpg</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6316062.jpg</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6436770.jpg</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6487948.jpg</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6489086.jpg</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6636300.jpg</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6758511.jpg</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6782431.jpg</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6908361.jpg</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6933766.jpg</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>pexels-heyho-6969997.jpg</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7005451.jpg</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7018243.jpg</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7018822.jpg</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7031878.jpg</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7031882.jpg</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7046006.jpg</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7061423.jpg</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7166551.jpg</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7166936.jpg</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7214446.jpg</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7227624.jpg</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7545781.jpg</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7546320.jpg</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7546640.jpg</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>pexels-heyho-7587746.jpg</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>pexels-heyho-8134810.jpg</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>pexels-heyho-8134822.jpg</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>pexels-heyho-8141966.jpg</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>pexels-heyho-8143713.jpg</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>pexels-jvdm-1599790.jpg</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>pexels-pixabay-262005.jpg</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>pexels-pixabay-358592.jpg</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>pexels-rana-matloob-hussain-733235258-26886816 (1).jpg</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>pexels-rana-matloob-hussain-733235258-26886816.jpg</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>pexels-swed-standard-1308234756-27629443.jpg</t>
-        </is>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>nontarget</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>pexels-vika-glitter-392079-3315291.jpg</t>
-        </is>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
         <v>0</v>
       </c>
     </row>
